--- a/Inventory/Assets/道具装备信息.xlsx
+++ b/Inventory/Assets/道具装备信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Magician/Documents/GitHub/小框架，小功能/Inventory/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B8D8CF1-3AC8-884A-A647-A4113A476F24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED2CFE6-44CB-1145-8F94-BCCA718CC742}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="27720" windowHeight="17040" xr2:uid="{FBC702A6-32A3-4344-ABE9-6490655C5096}"/>
   </bookViews>
@@ -439,7 +439,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
